--- a/xlsx/php.ini-.xlsx
+++ b/xlsx/php.ini-.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14100" windowHeight="9270"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>EDZ</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>EDZ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、此扩展的代替者是： OPcache、 APCu、 Windows Cache for PHP 和 Session Upload Progress API。【官网https://www.php.net/manual/zh/intro.apc.php】
+2、不能在一天服务器上同时安装APC和Zend Optimiser，二者只能选其一？？？【网https://www.cnblogs.com/paopao123/p/11639783.html】
+3、常见的 PHP 加速器还有 Eaccelerator、XCache 等。
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="355">
   <si>
     <t>default</t>
   </si>
@@ -196,6 +231,936 @@
   </si>
   <si>
     <t xml:space="preserve"> ""</t>
+  </si>
+  <si>
+    <t>官网</t>
+  </si>
+  <si>
+    <t>https://www.php.net/manual/zh/funcref.php</t>
+  </si>
+  <si>
+    <t>大致分类</t>
+  </si>
+  <si>
+    <t>扩展</t>
+  </si>
+  <si>
+    <t>支持版本</t>
+  </si>
+  <si>
+    <t>是否安装</t>
+  </si>
+  <si>
+    <t>其他依赖</t>
+  </si>
+  <si>
+    <t>稳定性</t>
+  </si>
+  <si>
+    <t>yum名</t>
+  </si>
+  <si>
+    <t>安装方式</t>
+  </si>
+  <si>
+    <t>功能简述</t>
+  </si>
+  <si>
+    <t>功能详细描述</t>
+  </si>
+  <si>
+    <t>英文名</t>
+  </si>
+  <si>
+    <t>影响 PHP 行为的扩展</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>PECL安装</t>
+  </si>
+  <si>
+    <t>opCode加速器</t>
+  </si>
+  <si>
+    <t>它的目标是提供一个自由、开放和健全的框架用于缓存和优化 PHP 的中间代码，
+加快 PHP 执行速度。</t>
+  </si>
+  <si>
+    <t>Alternative PHP Cache</t>
+  </si>
+  <si>
+    <t>APCu</t>
+  </si>
+  <si>
+    <t>APC User Cache</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>调试器</t>
+  </si>
+  <si>
+    <t>高级php调试器</t>
+  </si>
+  <si>
+    <t>Advanced PHP debugger</t>
+  </si>
+  <si>
+    <t>bcompiler</t>
+  </si>
+  <si>
+    <t>实验</t>
+  </si>
+  <si>
+    <t>字节码编译器</t>
+  </si>
+  <si>
+    <t>PHP 字节码编译器</t>
+  </si>
+  <si>
+    <t>BLENC</t>
+  </si>
+  <si>
+    <t>源码保护</t>
+  </si>
+  <si>
+    <t>用河豚算法加密php scripts</t>
+  </si>
+  <si>
+    <t>BLowfish ENCoder for PHP source scripts</t>
+  </si>
+  <si>
+    <t>Componere</t>
+  </si>
+  <si>
+    <t>Reflection </t>
+  </si>
+  <si>
+    <t>反射</t>
+  </si>
+  <si>
+    <t>错误处理</t>
+  </si>
+  <si>
+    <t>内核组成</t>
+  </si>
+  <si>
+    <t>错误处理和日志记录</t>
+  </si>
+  <si>
+    <t>FFI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>允许在纯PHP中加载共享库（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.DLL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.so</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），调用C函数以及访问C数据结构，而无需深入了解Zend扩展API</t>
+    </r>
+  </si>
+  <si>
+    <t>Foreign Function Interface</t>
+  </si>
+  <si>
+    <t>htscanner</t>
+  </si>
+  <si>
+    <t>php&gt;=5.2.0</t>
+  </si>
+  <si>
+    <t>htaccess</t>
+  </si>
+  <si>
+    <t>扩展允许使用类似htaccess的文件来配置每个目录的PHP，就像apache的htaccess一样。这对于fastcgi（IIS5 / 6/7，lighttpd等）特别有用。</t>
+  </si>
+  <si>
+    <t>htaccess-like support for all SAPIs</t>
+  </si>
+  <si>
+    <t>inclued</t>
+  </si>
+  <si>
+    <t>php&gt;=5.1.0</t>
+  </si>
+  <si>
+    <t>Inclusion hierarchy viewer</t>
+  </si>
+  <si>
+    <t>Memtrack</t>
+  </si>
+  <si>
+    <t>OPcache</t>
+  </si>
+  <si>
+    <t>输出控制</t>
+  </si>
+  <si>
+    <t>输出缓冲控制</t>
+  </si>
+  <si>
+    <t>PHP 选项/信息 </t>
+  </si>
+  <si>
+    <t>PHP 选项和信息</t>
+  </si>
+  <si>
+    <t>phpdbg </t>
+  </si>
+  <si>
+    <t>runkit</t>
+  </si>
+  <si>
+    <t>runkit7</t>
+  </si>
+  <si>
+    <t>scream </t>
+  </si>
+  <si>
+    <t>uopz</t>
+  </si>
+  <si>
+    <t>Weakref</t>
+  </si>
+  <si>
+    <t>WinCache</t>
+  </si>
+  <si>
+    <t>Xhprof</t>
+  </si>
+  <si>
+    <t> 层次式性能分析器</t>
+  </si>
+  <si>
+    <t>音频格式操作</t>
+  </si>
+  <si>
+    <t>ID3</t>
+  </si>
+  <si>
+    <t>KTaglib</t>
+  </si>
+  <si>
+    <t>oggvorbis</t>
+  </si>
+  <si>
+    <t>OpenAL</t>
+  </si>
+  <si>
+    <t>身份认证服务</t>
+  </si>
+  <si>
+    <t>KADM5</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>针对命令行的扩展</t>
+  </si>
+  <si>
+    <t>Ncurses</t>
+  </si>
+  <si>
+    <t>Newt</t>
+  </si>
+  <si>
+    <t>Readline</t>
+  </si>
+  <si>
+    <t>Bzip2</t>
+  </si>
+  <si>
+    <t>LZF</t>
+  </si>
+  <si>
+    <t>Phar</t>
+  </si>
+  <si>
+    <t>Rar</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Zlib</t>
+  </si>
+  <si>
+    <t>信用卡处理</t>
+  </si>
+  <si>
+    <t>MCVE</t>
+  </si>
+  <si>
+    <t>加密扩展</t>
+  </si>
+  <si>
+    <t>Crack</t>
+  </si>
+  <si>
+    <t>CSPRNG</t>
+  </si>
+  <si>
+    <t>Hash</t>
+  </si>
+  <si>
+    <t>哈希信息摘要框架</t>
+  </si>
+  <si>
+    <t>Mcrypt</t>
+  </si>
+  <si>
+    <t>Mhash</t>
+  </si>
+  <si>
+    <t>OpenSSL</t>
+  </si>
+  <si>
+    <t>密码散列算法</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>数据库扩展</t>
+  </si>
+  <si>
+    <t>数据库抽象层</t>
+  </si>
+  <si>
+    <t>针对各数据库系统对应的扩展</t>
+  </si>
+  <si>
+    <t>日期与时间相关扩展</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>日期/时间 </t>
+  </si>
+  <si>
+    <t>日期和时间</t>
+  </si>
+  <si>
+    <t>HRTime </t>
+  </si>
+  <si>
+    <t>文件系统相关扩展</t>
+  </si>
+  <si>
+    <t>Direct IO</t>
+  </si>
+  <si>
+    <t>目录</t>
+  </si>
+  <si>
+    <t>Fileinfo </t>
+  </si>
+  <si>
+    <t>文件信息</t>
+  </si>
+  <si>
+    <t>文件系统</t>
+  </si>
+  <si>
+    <t>Inotify</t>
+  </si>
+  <si>
+    <t>Mimetype</t>
+  </si>
+  <si>
+    <t>Phdfs</t>
+  </si>
+  <si>
+    <t>Proctitle</t>
+  </si>
+  <si>
+    <t>xattr</t>
+  </si>
+  <si>
+    <t>xdiff</t>
+  </si>
+  <si>
+    <t>国际化与字符编码支持</t>
+  </si>
+  <si>
+    <t>Enchant</t>
+  </si>
+  <si>
+    <t>FriBiDi</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Gettext</t>
+  </si>
+  <si>
+    <t>iconv</t>
+  </si>
+  <si>
+    <t>intl </t>
+  </si>
+  <si>
+    <t>多字节字符串</t>
+  </si>
+  <si>
+    <t>Pspell</t>
+  </si>
+  <si>
+    <t>Recode</t>
+  </si>
+  <si>
+    <t>图像生成和处理</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Exif </t>
+  </si>
+  <si>
+    <t>可交换图像信息</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>图像处理和 GD</t>
+  </si>
+  <si>
+    <t>Gmagick</t>
+  </si>
+  <si>
+    <t>ImageMagick</t>
+  </si>
+  <si>
+    <t>图像处理(ImageMagick)</t>
+  </si>
+  <si>
+    <t>邮件相关扩展</t>
+  </si>
+  <si>
+    <t>Cyrus</t>
+  </si>
+  <si>
+    <t>IMAP</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Mailparse</t>
+  </si>
+  <si>
+    <t>vpopmail</t>
+  </si>
+  <si>
+    <t>数学扩展</t>
+  </si>
+  <si>
+    <t>BC Math</t>
+  </si>
+  <si>
+    <t>GMP</t>
+  </si>
+  <si>
+    <t>Lapack</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Trader</t>
+  </si>
+  <si>
+    <t>非文本内容的 MIME 输出</t>
+  </si>
+  <si>
+    <t>FDF</t>
+  </si>
+  <si>
+    <t>GnuPG </t>
+  </si>
+  <si>
+    <t>haru </t>
+  </si>
+  <si>
+    <t>Ming </t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>wkhtmltox</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>RPM Reader</t>
+  </si>
+  <si>
+    <t>XLSWriter</t>
+  </si>
+  <si>
+    <t>进程控制扩展</t>
+  </si>
+  <si>
+    <t>Eio</t>
+  </si>
+  <si>
+    <t>Ev</t>
+  </si>
+  <si>
+    <t>Expect</t>
+  </si>
+  <si>
+    <t>Libevent</t>
+  </si>
+  <si>
+    <t>PCNTL </t>
+  </si>
+  <si>
+    <t>进程控制</t>
+  </si>
+  <si>
+    <t>POSIX</t>
+  </si>
+  <si>
+    <t>程序执行 </t>
+  </si>
+  <si>
+    <t>系统程序执行</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t>pthreads</t>
+  </si>
+  <si>
+    <t>pht</t>
+  </si>
+  <si>
+    <t>Semaphore</t>
+  </si>
+  <si>
+    <t>Shared Memory</t>
+  </si>
+  <si>
+    <t>Sync</t>
+  </si>
+  <si>
+    <t>其它基本扩展</t>
+  </si>
+  <si>
+    <t>GeoIP </t>
+  </si>
+  <si>
+    <t>Geo IP 定位</t>
+  </si>
+  <si>
+    <t>FANN </t>
+  </si>
+  <si>
+    <t>FANN (快速人工神经网络)</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>JavaScript对象符号（JSON）</t>
+  </si>
+  <si>
+    <t>Judy </t>
+  </si>
+  <si>
+    <t>Lua</t>
+  </si>
+  <si>
+    <t>LuaSandbox</t>
+  </si>
+  <si>
+    <t>Misc.</t>
+  </si>
+  <si>
+    <t>杂项函数</t>
+  </si>
+  <si>
+    <t>Parsekit</t>
+  </si>
+  <si>
+    <t>SeasLog</t>
+  </si>
+  <si>
+    <t>SPL</t>
+  </si>
+  <si>
+    <t>PHP标准库 (SPL)</t>
+  </si>
+  <si>
+    <t>SPL Types</t>
+  </si>
+  <si>
+    <t>Streams</t>
+  </si>
+  <si>
+    <t>Swoole</t>
+  </si>
+  <si>
+    <t>Tidy</t>
+  </si>
+  <si>
+    <t>Tokenizer</t>
+  </si>
+  <si>
+    <t>URLs</t>
+  </si>
+  <si>
+    <t>V8js </t>
+  </si>
+  <si>
+    <t>Yaml </t>
+  </si>
+  <si>
+    <t>YAML 数据序列化</t>
+  </si>
+  <si>
+    <t>Yaf</t>
+  </si>
+  <si>
+    <t>Yaconf</t>
+  </si>
+  <si>
+    <t>Taint</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>其它服务</t>
+  </si>
+  <si>
+    <t>chdb </t>
+  </si>
+  <si>
+    <t>cURL </t>
+  </si>
+  <si>
+    <t>Client URL 库</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>FAM </t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>Gearman</t>
+  </si>
+  <si>
+    <t>Gopher </t>
+  </si>
+  <si>
+    <t>Gupnp</t>
+  </si>
+  <si>
+    <t>Hyperwave API</t>
+  </si>
+  <si>
+    <t>LDAP</t>
+  </si>
+  <si>
+    <t>Memcache</t>
+  </si>
+  <si>
+    <t>Memcached</t>
+  </si>
+  <si>
+    <t>mqseries</t>
+  </si>
+  <si>
+    <t>网络</t>
+  </si>
+  <si>
+    <t>RRD</t>
+  </si>
+  <si>
+    <t>SAM </t>
+  </si>
+  <si>
+    <t>ScoutAPM</t>
+  </si>
+  <si>
+    <t>SNMP</t>
+  </si>
+  <si>
+    <t>Sockets</t>
+  </si>
+  <si>
+    <t>SSH2</t>
+  </si>
+  <si>
+    <t>Stomp</t>
+  </si>
+  <si>
+    <t>SVM </t>
+  </si>
+  <si>
+    <t>SVN </t>
+  </si>
+  <si>
+    <t>TCP </t>
+  </si>
+  <si>
+    <t>Varnish</t>
+  </si>
+  <si>
+    <t>YAZ</t>
+  </si>
+  <si>
+    <t>YP/NIS</t>
+  </si>
+  <si>
+    <t>0MQ消息系统 — ZMQ</t>
+  </si>
+  <si>
+    <t>ZooKeeper</t>
+  </si>
+  <si>
+    <t>搜索引擎扩展</t>
+  </si>
+  <si>
+    <t>mnoGoSearch</t>
+  </si>
+  <si>
+    <t>Solr </t>
+  </si>
+  <si>
+    <t>Sphinx</t>
+  </si>
+  <si>
+    <t>Swish</t>
+  </si>
+  <si>
+    <t>针对服务器的扩展</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>FastCGI 进程管理器</t>
+  </si>
+  <si>
+    <t>IIS</t>
+  </si>
+  <si>
+    <t>NSAPI</t>
+  </si>
+  <si>
+    <t>Session 扩展</t>
+  </si>
+  <si>
+    <t>Msession</t>
+  </si>
+  <si>
+    <t>Sessions</t>
+  </si>
+  <si>
+    <t>Session PgSQL </t>
+  </si>
+  <si>
+    <t>文本处理</t>
+  </si>
+  <si>
+    <t>BBCode </t>
+  </si>
+  <si>
+    <t>CommonMark</t>
+  </si>
+  <si>
+    <t>Parle </t>
+  </si>
+  <si>
+    <t>PCRE</t>
+  </si>
+  <si>
+    <t> 正则表达式(兼容 Perl)</t>
+  </si>
+  <si>
+    <t>POSIX Regex</t>
+  </si>
+  <si>
+    <t>ssdeep </t>
+  </si>
+  <si>
+    <t>字符串</t>
+  </si>
+  <si>
+    <t>变量与类型相关扩展</t>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>类/对象 </t>
+  </si>
+  <si>
+    <t>类/对象的信息</t>
+  </si>
+  <si>
+    <t>Classkit</t>
+  </si>
+  <si>
+    <t>Ctype</t>
+  </si>
+  <si>
+    <t>字符类型检测</t>
+  </si>
+  <si>
+    <t>Filter </t>
+  </si>
+  <si>
+    <t>函数处理</t>
+  </si>
+  <si>
+    <t>Quickhash</t>
+  </si>
+  <si>
+    <t>Variable handling</t>
+  </si>
+  <si>
+    <t>Web 服务</t>
+  </si>
+  <si>
+    <t>OAuth</t>
+  </si>
+  <si>
+    <t>SCA</t>
+  </si>
+  <si>
+    <t>SOAP</t>
+  </si>
+  <si>
+    <t>Yar </t>
+  </si>
+  <si>
+    <t>Yet Another RPC Framework</t>
+  </si>
+  <si>
+    <t>XML-RPC</t>
+  </si>
+  <si>
+    <t>Windows 专用扩展</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>win32ps</t>
+  </si>
+  <si>
+    <t>win32service</t>
+  </si>
+  <si>
+    <t>XML 操作</t>
+  </si>
+  <si>
+    <t>DOM </t>
+  </si>
+  <si>
+    <t>libxml</t>
+  </si>
+  <si>
+    <t>SDO</t>
+  </si>
+  <si>
+    <t>SDO-DAS-Relational</t>
+  </si>
+  <si>
+    <t>SDO DAS XML</t>
+  </si>
+  <si>
+    <t>SimpleXML</t>
+  </si>
+  <si>
+    <t>WDDX</t>
+  </si>
+  <si>
+    <t>XMLDiff </t>
+  </si>
+  <si>
+    <t>XML 解析器</t>
+  </si>
+  <si>
+    <t>XMLReader</t>
+  </si>
+  <si>
+    <t>XMLWriter</t>
+  </si>
+  <si>
+    <t>XSL</t>
+  </si>
+  <si>
+    <t>图形用户界面(GUI) 扩展</t>
+  </si>
+  <si>
+    <t>UI</t>
   </si>
 </sst>
 </file>
@@ -204,11 +1169,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,9 +1182,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color rgb="FFAE508D"/>
-      <name val="Helvetica"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -230,57 +1218,40 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF793862"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFAE508D"/>
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color rgb="FFAE508D"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,9 +1279,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,30 +1323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -356,8 +1331,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,22 +1363,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,7 +1411,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,31 +1441,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,67 +1471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +1489,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,31 +1567,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,26 +1607,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -595,11 +1617,142 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,19 +1774,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -654,15 +1807,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -678,17 +1822,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,156 +1835,243 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -855,13 +2080,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1214,313 +2436,313 @@
   <sheetPr/>
   <dimension ref="A3:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="16" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="31"/>
+    <col min="2" max="2" width="16" style="31" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="31" customWidth="1"/>
+    <col min="5" max="5" width="32.875" style="31" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:4">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="31" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="3:4">
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="31" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="31" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="31">
         <v>100</v>
       </c>
     </row>
     <row r="24" spans="3:4">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="31">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1"/>
+    <row r="30" s="30" customFormat="1"/>
     <row r="31" spans="3:3">
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="3:3">
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1"/>
+    <row r="33" s="30" customFormat="1"/>
     <row r="35" spans="1:5">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="31" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="C36" s="4" t="s">
+      <c r="A36" s="32"/>
+      <c r="C36" s="33" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:4">
-      <c r="A37" s="3"/>
-      <c r="C37" s="4" t="s">
+      <c r="A37" s="32"/>
+      <c r="C37" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:4">
-      <c r="A38" s="3"/>
-      <c r="C38" s="4" t="s">
+      <c r="A38" s="32"/>
+      <c r="C38" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="31">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="31" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="31">
         <v>14</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="31">
         <v>4096</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="43" spans="3:5">
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="31" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="45" ht="15" spans="2:6">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="31" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:4">
-      <c r="A49" s="3"/>
-      <c r="C49" s="4" t="s">
+      <c r="A49" s="32"/>
+      <c r="C49" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="31" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:4">
-      <c r="A50" s="3"/>
-      <c r="C50" s="4" t="s">
+      <c r="A50" s="32"/>
+      <c r="C50" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="31" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1547,17 +2769,3692 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:P213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="23.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="31.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="60.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:11">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:11">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:11">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="22"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="17.25" spans="1:16">
+      <c r="A7" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="27"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="26" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A29" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A30" s="19"/>
+      <c r="B30" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A31" s="19"/>
+      <c r="B31" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A32" s="20"/>
+      <c r="B32" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A34" s="20"/>
+      <c r="B34" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A36" s="19"/>
+      <c r="B36" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A37" s="20"/>
+      <c r="B37" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A39" s="19"/>
+      <c r="B39" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A40" s="19"/>
+      <c r="B40" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A41" s="19"/>
+      <c r="B41" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A42" s="19"/>
+      <c r="B42" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A43" s="20"/>
+      <c r="B43" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A44" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A45" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="12"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A46" s="19"/>
+      <c r="B46" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="12"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A47" s="19"/>
+      <c r="B47" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="K47" s="12"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A48" s="19"/>
+      <c r="B48" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A49" s="19"/>
+      <c r="B49" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="12"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A50" s="19"/>
+      <c r="B50" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="12"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A51" s="19"/>
+      <c r="B51" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="12"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A52" s="20"/>
+      <c r="B52" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="12"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A53" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="12"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="16" customHeight="1" spans="1:11">
+      <c r="A54" s="20"/>
+      <c r="B54" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="12"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A55" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="12"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A56" s="19"/>
+      <c r="B56" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K56" s="12"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A57" s="20"/>
+      <c r="B57" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="12"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A58" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A59" s="19"/>
+      <c r="B59" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="12"/>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A60" s="19"/>
+      <c r="B60" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A61" s="19"/>
+      <c r="B61" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A62" s="19"/>
+      <c r="B62" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A63" s="19"/>
+      <c r="B63" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="12"/>
+    </row>
+    <row r="64" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A64" s="19"/>
+      <c r="B64" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="12"/>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A65" s="19"/>
+      <c r="B65" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="12"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A66" s="19"/>
+      <c r="B66" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="12"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A67" s="20"/>
+      <c r="B67" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="12"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A68" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="12"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A69" s="19"/>
+      <c r="B69" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="12"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A70" s="19"/>
+      <c r="B70" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="12"/>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A71" s="19"/>
+      <c r="B71" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="12"/>
+    </row>
+    <row r="72" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A72" s="19"/>
+      <c r="B72" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="12"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A73" s="19"/>
+      <c r="B73" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="12"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A74" s="19"/>
+      <c r="B74" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="12"/>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A75" s="19"/>
+      <c r="B75" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="12"/>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A76" s="20"/>
+      <c r="B76" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="12"/>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A77" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="12"/>
+    </row>
+    <row r="78" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A78" s="19"/>
+      <c r="B78" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K78" s="12"/>
+    </row>
+    <row r="79" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A79" s="19"/>
+      <c r="B79" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="K79" s="12"/>
+    </row>
+    <row r="80" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A80" s="19"/>
+      <c r="B80" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="12"/>
+    </row>
+    <row r="81" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A81" s="20"/>
+      <c r="B81" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K81" s="12"/>
+    </row>
+    <row r="82" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A82" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="12"/>
+    </row>
+    <row r="83" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A83" s="19"/>
+      <c r="B83" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="12"/>
+    </row>
+    <row r="84" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A84" s="19"/>
+      <c r="B84" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="12"/>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A85" s="19"/>
+      <c r="B85" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="12"/>
+    </row>
+    <row r="86" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A86" s="20"/>
+      <c r="B86" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="12"/>
+    </row>
+    <row r="87" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A87" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="12"/>
+    </row>
+    <row r="88" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A88" s="19"/>
+      <c r="B88" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="12"/>
+    </row>
+    <row r="89" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A89" s="19"/>
+      <c r="B89" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="12"/>
+    </row>
+    <row r="90" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A90" s="19"/>
+      <c r="B90" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="12"/>
+    </row>
+    <row r="91" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A91" s="19"/>
+      <c r="B91" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="12"/>
+    </row>
+    <row r="92" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A92" s="20"/>
+      <c r="B92" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="12"/>
+    </row>
+    <row r="93" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A93" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="12"/>
+    </row>
+    <row r="94" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A94" s="19"/>
+      <c r="B94" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="12"/>
+    </row>
+    <row r="95" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A95" s="19"/>
+      <c r="B95" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="12"/>
+    </row>
+    <row r="96" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A96" s="19"/>
+      <c r="B96" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="12"/>
+    </row>
+    <row r="97" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A97" s="19"/>
+      <c r="B97" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="12"/>
+    </row>
+    <row r="98" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A98" s="19"/>
+      <c r="B98" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="12"/>
+    </row>
+    <row r="99" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A99" s="19"/>
+      <c r="B99" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="12"/>
+    </row>
+    <row r="100" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A100" s="19"/>
+      <c r="B100" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="12"/>
+    </row>
+    <row r="101" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A101" s="20"/>
+      <c r="B101" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="12"/>
+    </row>
+    <row r="102" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A102" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="12"/>
+    </row>
+    <row r="103" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A103" s="19"/>
+      <c r="B103" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="23"/>
+      <c r="K103" s="12"/>
+    </row>
+    <row r="104" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A104" s="19"/>
+      <c r="B104" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="23"/>
+      <c r="K104" s="12"/>
+    </row>
+    <row r="105" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A105" s="19"/>
+      <c r="B105" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="23"/>
+      <c r="K105" s="12"/>
+    </row>
+    <row r="106" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A106" s="19"/>
+      <c r="B106" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="K106" s="12"/>
+    </row>
+    <row r="107" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A107" s="19"/>
+      <c r="B107" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="23"/>
+      <c r="K107" s="12"/>
+    </row>
+    <row r="108" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A108" s="19"/>
+      <c r="B108" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K108" s="12"/>
+    </row>
+    <row r="109" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A109" s="19"/>
+      <c r="B109" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="23"/>
+      <c r="K109" s="12"/>
+    </row>
+    <row r="110" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A110" s="19"/>
+      <c r="B110" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="12"/>
+    </row>
+    <row r="111" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A111" s="19"/>
+      <c r="B111" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="23"/>
+      <c r="K111" s="12"/>
+    </row>
+    <row r="112" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A112" s="19"/>
+      <c r="B112" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="23"/>
+      <c r="K112" s="12"/>
+    </row>
+    <row r="113" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A113" s="19"/>
+      <c r="B113" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="23"/>
+      <c r="K113" s="12"/>
+    </row>
+    <row r="114" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A114" s="20"/>
+      <c r="B114" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="23"/>
+      <c r="K114" s="12"/>
+    </row>
+    <row r="115" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A115" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="K115" s="12"/>
+    </row>
+    <row r="116" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A116" s="19"/>
+      <c r="B116" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="K116" s="12"/>
+    </row>
+    <row r="117" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A117" s="19"/>
+      <c r="B117" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="K117" s="12"/>
+    </row>
+    <row r="118" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A118" s="19"/>
+      <c r="B118" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="23"/>
+      <c r="K118" s="12"/>
+    </row>
+    <row r="119" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A119" s="19"/>
+      <c r="B119" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="23"/>
+      <c r="K119" s="12"/>
+    </row>
+    <row r="120" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A120" s="19"/>
+      <c r="B120" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="23"/>
+      <c r="K120" s="12"/>
+    </row>
+    <row r="121" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A121" s="19"/>
+      <c r="B121" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="K121" s="12"/>
+    </row>
+    <row r="122" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A122" s="19"/>
+      <c r="B122" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="23"/>
+      <c r="K122" s="12"/>
+    </row>
+    <row r="123" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A123" s="19"/>
+      <c r="B123" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="23"/>
+      <c r="K123" s="12"/>
+    </row>
+    <row r="124" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A124" s="19"/>
+      <c r="B124" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="K124" s="12"/>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A125" s="19"/>
+      <c r="B125" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="23"/>
+      <c r="K125" s="12"/>
+    </row>
+    <row r="126" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A126" s="19"/>
+      <c r="B126" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="12"/>
+      <c r="I126" s="12"/>
+      <c r="J126" s="23"/>
+      <c r="K126" s="12"/>
+    </row>
+    <row r="127" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A127" s="19"/>
+      <c r="B127" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="23"/>
+      <c r="K127" s="12"/>
+    </row>
+    <row r="128" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A128" s="19"/>
+      <c r="B128" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="23"/>
+      <c r="K128" s="12"/>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A129" s="19"/>
+      <c r="B129" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="23"/>
+      <c r="K129" s="12"/>
+    </row>
+    <row r="130" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A130" s="19"/>
+      <c r="B130" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="23"/>
+      <c r="K130" s="12"/>
+    </row>
+    <row r="131" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A131" s="19"/>
+      <c r="B131" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="23"/>
+      <c r="K131" s="12"/>
+    </row>
+    <row r="132" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A132" s="19"/>
+      <c r="B132" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="K132" s="12"/>
+    </row>
+    <row r="133" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A133" s="19"/>
+      <c r="B133" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="23"/>
+      <c r="K133" s="12"/>
+    </row>
+    <row r="134" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A134" s="19"/>
+      <c r="B134" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="I134" s="12"/>
+      <c r="J134" s="23"/>
+      <c r="K134" s="12"/>
+    </row>
+    <row r="135" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A135" s="19"/>
+      <c r="B135" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="I135" s="12"/>
+      <c r="J135" s="23"/>
+      <c r="K135" s="12"/>
+    </row>
+    <row r="136" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A136" s="20"/>
+      <c r="B136" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="I136" s="12"/>
+      <c r="J136" s="23"/>
+      <c r="K136" s="12"/>
+    </row>
+    <row r="137" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A137" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="23"/>
+      <c r="K137" s="12"/>
+    </row>
+    <row r="138" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A138" s="19"/>
+      <c r="B138" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="K138" s="12"/>
+    </row>
+    <row r="139" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A139" s="19"/>
+      <c r="B139" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="23"/>
+      <c r="K139" s="12"/>
+    </row>
+    <row r="140" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A140" s="19"/>
+      <c r="B140" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="23"/>
+      <c r="K140" s="12"/>
+    </row>
+    <row r="141" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A141" s="19"/>
+      <c r="B141" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+      <c r="G141" s="12"/>
+      <c r="H141" s="12"/>
+      <c r="I141" s="12"/>
+      <c r="J141" s="23"/>
+      <c r="K141" s="12"/>
+    </row>
+    <row r="142" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A142" s="19"/>
+      <c r="B142" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+      <c r="G142" s="12"/>
+      <c r="H142" s="12"/>
+      <c r="I142" s="12"/>
+      <c r="J142" s="23"/>
+      <c r="K142" s="12"/>
+    </row>
+    <row r="143" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A143" s="19"/>
+      <c r="B143" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="23"/>
+      <c r="K143" s="12"/>
+    </row>
+    <row r="144" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A144" s="19"/>
+      <c r="B144" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12"/>
+      <c r="I144" s="12"/>
+      <c r="J144" s="23"/>
+      <c r="K144" s="12"/>
+    </row>
+    <row r="145" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A145" s="19"/>
+      <c r="B145" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="23"/>
+      <c r="K145" s="12"/>
+    </row>
+    <row r="146" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A146" s="19"/>
+      <c r="B146" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="23"/>
+      <c r="K146" s="12"/>
+    </row>
+    <row r="147" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A147" s="19"/>
+      <c r="B147" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="I147" s="12"/>
+      <c r="J147" s="23"/>
+      <c r="K147" s="12"/>
+    </row>
+    <row r="148" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A148" s="19"/>
+      <c r="B148" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="23"/>
+      <c r="K148" s="12"/>
+    </row>
+    <row r="149" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A149" s="19"/>
+      <c r="B149" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="23"/>
+      <c r="K149" s="12"/>
+    </row>
+    <row r="150" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A150" s="19"/>
+      <c r="B150" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="I150" s="12"/>
+      <c r="J150" s="23"/>
+      <c r="K150" s="12"/>
+    </row>
+    <row r="151" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A151" s="19"/>
+      <c r="B151" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="23"/>
+      <c r="K151" s="12"/>
+    </row>
+    <row r="152" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A152" s="19"/>
+      <c r="B152" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="23"/>
+      <c r="K152" s="12"/>
+    </row>
+    <row r="153" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A153" s="19"/>
+      <c r="B153" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="23"/>
+      <c r="K153" s="12"/>
+    </row>
+    <row r="154" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A154" s="19"/>
+      <c r="B154" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="23"/>
+      <c r="K154" s="12"/>
+    </row>
+    <row r="155" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A155" s="19"/>
+      <c r="B155" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="23"/>
+      <c r="K155" s="12"/>
+    </row>
+    <row r="156" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A156" s="19"/>
+      <c r="B156" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="23"/>
+      <c r="K156" s="12"/>
+    </row>
+    <row r="157" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A157" s="19"/>
+      <c r="B157" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="23"/>
+      <c r="K157" s="12"/>
+    </row>
+    <row r="158" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A158" s="19"/>
+      <c r="B158" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="23"/>
+      <c r="K158" s="12"/>
+    </row>
+    <row r="159" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A159" s="19"/>
+      <c r="B159" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="23"/>
+      <c r="K159" s="12"/>
+    </row>
+    <row r="160" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A160" s="19"/>
+      <c r="B160" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="23"/>
+      <c r="K160" s="12"/>
+    </row>
+    <row r="161" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A161" s="19"/>
+      <c r="B161" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="23"/>
+      <c r="K161" s="12"/>
+    </row>
+    <row r="162" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A162" s="19"/>
+      <c r="B162" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="23"/>
+      <c r="K162" s="12"/>
+    </row>
+    <row r="163" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A163" s="19"/>
+      <c r="B163" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="23"/>
+      <c r="K163" s="12"/>
+    </row>
+    <row r="164" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A164" s="19"/>
+      <c r="B164" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="23"/>
+      <c r="K164" s="12"/>
+    </row>
+    <row r="165" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A165" s="20"/>
+      <c r="B165" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="23"/>
+      <c r="K165" s="12"/>
+    </row>
+    <row r="166" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A166" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="23"/>
+      <c r="K166" s="12"/>
+    </row>
+    <row r="167" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A167" s="19"/>
+      <c r="B167" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="I167" s="12"/>
+      <c r="J167" s="23"/>
+      <c r="K167" s="12"/>
+    </row>
+    <row r="168" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A168" s="19"/>
+      <c r="B168" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="23"/>
+      <c r="K168" s="12"/>
+    </row>
+    <row r="169" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A169" s="20"/>
+      <c r="B169" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="I169" s="12"/>
+      <c r="J169" s="23"/>
+      <c r="K169" s="12"/>
+    </row>
+    <row r="170" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A170" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="12"/>
+      <c r="F170" s="12"/>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="23"/>
+      <c r="K170" s="12"/>
+    </row>
+    <row r="171" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A171" s="19"/>
+      <c r="B171" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="12"/>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="23"/>
+      <c r="K171" s="12"/>
+    </row>
+    <row r="172" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A172" s="19"/>
+      <c r="B172" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="12"/>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="23"/>
+      <c r="K172" s="12"/>
+    </row>
+    <row r="173" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A173" s="20"/>
+      <c r="B173" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="12"/>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="23"/>
+      <c r="K173" s="12"/>
+    </row>
+    <row r="174" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A174" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="23"/>
+      <c r="K174" s="12"/>
+    </row>
+    <row r="175" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A175" s="19"/>
+      <c r="B175" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="12"/>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="23"/>
+      <c r="K175" s="12"/>
+    </row>
+    <row r="176" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A176" s="20"/>
+      <c r="B176" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="12"/>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="23"/>
+      <c r="K176" s="12"/>
+    </row>
+    <row r="177" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A177" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="12"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="23"/>
+      <c r="K177" s="12"/>
+    </row>
+    <row r="178" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A178" s="19"/>
+      <c r="B178" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="12"/>
+      <c r="F178" s="12"/>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="23"/>
+      <c r="K178" s="12"/>
+    </row>
+    <row r="179" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A179" s="19"/>
+      <c r="B179" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="23"/>
+      <c r="K179" s="12"/>
+    </row>
+    <row r="180" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A180" s="19"/>
+      <c r="B180" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="12"/>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="K180" s="12"/>
+    </row>
+    <row r="181" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A181" s="19"/>
+      <c r="B181" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="12"/>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="23"/>
+      <c r="K181" s="12"/>
+    </row>
+    <row r="182" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A182" s="19"/>
+      <c r="B182" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="12"/>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="23"/>
+      <c r="K182" s="12"/>
+    </row>
+    <row r="183" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A183" s="20"/>
+      <c r="B183" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="23"/>
+      <c r="K183" s="12"/>
+    </row>
+    <row r="184" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A184" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="23"/>
+      <c r="K184" s="12"/>
+    </row>
+    <row r="185" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A185" s="19"/>
+      <c r="B185" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="K185" s="12"/>
+    </row>
+    <row r="186" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A186" s="19"/>
+      <c r="B186" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="23"/>
+      <c r="K186" s="12"/>
+    </row>
+    <row r="187" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A187" s="19"/>
+      <c r="B187" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K187" s="12"/>
+    </row>
+    <row r="188" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A188" s="19"/>
+      <c r="B188" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="23"/>
+      <c r="K188" s="12"/>
+    </row>
+    <row r="189" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A189" s="19"/>
+      <c r="B189" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="23"/>
+      <c r="K189" s="12"/>
+    </row>
+    <row r="190" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A190" s="19"/>
+      <c r="B190" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="23"/>
+      <c r="K190" s="12"/>
+    </row>
+    <row r="191" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A191" s="19"/>
+      <c r="B191" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="23"/>
+      <c r="K191" s="12"/>
+    </row>
+    <row r="192" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A192" s="20"/>
+      <c r="B192" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="23"/>
+      <c r="K192" s="12"/>
+    </row>
+    <row r="193" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A193" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="12"/>
+      <c r="F193" s="12"/>
+      <c r="G193" s="12"/>
+      <c r="H193" s="12"/>
+      <c r="I193" s="12"/>
+      <c r="J193" s="23"/>
+      <c r="K193" s="12"/>
+    </row>
+    <row r="194" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A194" s="19"/>
+      <c r="B194" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="12"/>
+      <c r="F194" s="12"/>
+      <c r="G194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="I194" s="12"/>
+      <c r="J194" s="23"/>
+      <c r="K194" s="12"/>
+    </row>
+    <row r="195" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A195" s="19"/>
+      <c r="B195" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="23"/>
+      <c r="K195" s="12"/>
+    </row>
+    <row r="196" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A196" s="19"/>
+      <c r="B196" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+      <c r="J196" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="K196" s="12"/>
+    </row>
+    <row r="197" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A197" s="20"/>
+      <c r="B197" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="12"/>
+      <c r="F197" s="12"/>
+      <c r="G197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="I197" s="12"/>
+      <c r="J197" s="23"/>
+      <c r="K197" s="12"/>
+    </row>
+    <row r="198" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A198" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="12"/>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="23"/>
+      <c r="K198" s="12"/>
+    </row>
+    <row r="199" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A199" s="19"/>
+      <c r="B199" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="12"/>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+      <c r="J199" s="23"/>
+      <c r="K199" s="12"/>
+    </row>
+    <row r="200" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A200" s="20"/>
+      <c r="B200" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="12"/>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="23"/>
+      <c r="K200" s="12"/>
+    </row>
+    <row r="201" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A201" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="12"/>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="23"/>
+      <c r="K201" s="12"/>
+    </row>
+    <row r="202" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A202" s="19"/>
+      <c r="B202" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="12"/>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+      <c r="J202" s="23"/>
+      <c r="K202" s="12"/>
+    </row>
+    <row r="203" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A203" s="19"/>
+      <c r="B203" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="12"/>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="23"/>
+      <c r="K203" s="12"/>
+    </row>
+    <row r="204" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A204" s="19"/>
+      <c r="B204" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="12"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="12"/>
+      <c r="J204" s="23"/>
+      <c r="K204" s="12"/>
+    </row>
+    <row r="205" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A205" s="19"/>
+      <c r="B205" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="E205" s="12"/>
+      <c r="F205" s="12"/>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="12"/>
+      <c r="J205" s="23"/>
+      <c r="K205" s="12"/>
+    </row>
+    <row r="206" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A206" s="19"/>
+      <c r="B206" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="C206" s="12"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="12"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="12"/>
+      <c r="J206" s="23"/>
+      <c r="K206" s="12"/>
+    </row>
+    <row r="207" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A207" s="19"/>
+      <c r="B207" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="12"/>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="12"/>
+      <c r="J207" s="23"/>
+      <c r="K207" s="12"/>
+    </row>
+    <row r="208" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A208" s="19"/>
+      <c r="B208" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="12"/>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+      <c r="J208" s="23"/>
+      <c r="K208" s="12"/>
+    </row>
+    <row r="209" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A209" s="19"/>
+      <c r="B209" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
+      <c r="J209" s="23"/>
+      <c r="K209" s="12"/>
+    </row>
+    <row r="210" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A210" s="19"/>
+      <c r="B210" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="12"/>
+      <c r="F210" s="12"/>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="23"/>
+      <c r="K210" s="12"/>
+    </row>
+    <row r="211" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A211" s="19"/>
+      <c r="B211" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="12"/>
+      <c r="F211" s="12"/>
+      <c r="G211" s="12"/>
+      <c r="H211" s="12"/>
+      <c r="I211" s="12"/>
+      <c r="J211" s="23"/>
+      <c r="K211" s="12"/>
+    </row>
+    <row r="212" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A212" s="20"/>
+      <c r="B212" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="E212" s="12"/>
+      <c r="F212" s="12"/>
+      <c r="G212" s="12"/>
+      <c r="H212" s="12"/>
+      <c r="I212" s="12"/>
+      <c r="J212" s="23"/>
+      <c r="K212" s="12"/>
+    </row>
+    <row r="213" s="1" customFormat="1" ht="17.25" spans="1:11">
+      <c r="A213" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="C213" s="12"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="12"/>
+      <c r="F213" s="12"/>
+      <c r="G213" s="12"/>
+      <c r="H213" s="12"/>
+      <c r="I213" s="12"/>
+      <c r="J213" s="23"/>
+      <c r="K213" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="A7:A28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A67"/>
+    <mergeCell ref="A68:A76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A92"/>
+    <mergeCell ref="A93:A101"/>
+    <mergeCell ref="A102:A114"/>
+    <mergeCell ref="A115:A136"/>
+    <mergeCell ref="A137:A165"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A174:A176"/>
+    <mergeCell ref="A177:A183"/>
+    <mergeCell ref="A184:A192"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="A198:A200"/>
+    <mergeCell ref="A201:A212"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId3" display="影响 PHP 行为的扩展" tooltip="https://www.php.net/manual/zh/refs.basic.php.php"/>
+    <hyperlink ref="B7" r:id="rId4" display="APC" tooltip="https://www.php.net/manual/zh/book.apc.php"/>
+    <hyperlink ref="B8" r:id="rId5" display="APCu" tooltip="https://www.php.net/manual/zh/book.apcu.php"/>
+    <hyperlink ref="B9" r:id="rId6" display="APD" tooltip="https://www.php.net/manual/zh/book.apd.php"/>
+    <hyperlink ref="B10" r:id="rId7" display="bcompiler" tooltip="https://www.php.net/manual/zh/book.bcompiler.php"/>
+    <hyperlink ref="B11" r:id="rId8" display="BLENC" tooltip="https://www.php.net/manual/zh/book.blenc.php"/>
+    <hyperlink ref="B12" r:id="rId9" display="Componere" tooltip="https://www.php.net/manual/zh/book.componere.php"/>
+    <hyperlink ref="B13" r:id="rId10" display="错误处理" tooltip="https://www.php.net/manual/zh/book.errorfunc.php"/>
+    <hyperlink ref="B14" r:id="rId11" display="FFI" tooltip="https://www.php.net/manual/zh/book.ffi.php"/>
+    <hyperlink ref="B15" r:id="rId12" display="htscanner" tooltip="https://www.php.net/manual/zh/book.htscanner.php"/>
+    <hyperlink ref="B16" r:id="rId13" display="inclued" tooltip="https://www.php.net/manual/zh/book.inclued.php"/>
+    <hyperlink ref="B17" r:id="rId14" display="Memtrack" tooltip="https://www.php.net/manual/zh/book.memtrack.php"/>
+    <hyperlink ref="B18" r:id="rId15" display="OPcache" tooltip="https://www.php.net/manual/zh/book.opcache.php"/>
+    <hyperlink ref="B19" r:id="rId16" display="输出控制" tooltip="https://www.php.net/manual/zh/book.outcontrol.php"/>
+    <hyperlink ref="B20" r:id="rId17" display="PHP 选项/信息 " tooltip="https://www.php.net/manual/zh/book.info.php"/>
+    <hyperlink ref="B21" r:id="rId18" display="phpdbg " tooltip="https://www.php.net/manual/zh/book.phpdbg.php"/>
+    <hyperlink ref="B22" r:id="rId19" display="runkit" tooltip="https://www.php.net/manual/zh/book.runkit.php"/>
+    <hyperlink ref="B23" r:id="rId20" display="runkit7" tooltip="https://www.php.net/manual/zh/book.runkit7.php"/>
+    <hyperlink ref="B24" r:id="rId21" display="scream " tooltip="https://www.php.net/manual/zh/book.scream.php"/>
+    <hyperlink ref="B25" r:id="rId22" display="uopz" tooltip="https://www.php.net/manual/zh/book.uopz.php"/>
+    <hyperlink ref="B26" r:id="rId23" display="Weakref" tooltip="https://www.php.net/manual/zh/book.weakref.php"/>
+    <hyperlink ref="B27" r:id="rId24" display="WinCache" tooltip="https://www.php.net/manual/zh/book.wincache.php"/>
+    <hyperlink ref="B28" r:id="rId25" display="Xhprof" tooltip="https://www.php.net/manual/zh/book.xhprof.php"/>
+    <hyperlink ref="A29" r:id="rId26" display="音频格式操作" tooltip="https://www.php.net/manual/zh/refs.utilspec.audio.php"/>
+    <hyperlink ref="B29" r:id="rId27" display="ID3" tooltip="https://www.php.net/manual/zh/book.id3.php"/>
+    <hyperlink ref="B30" r:id="rId28" display="KTaglib" tooltip="https://www.php.net/manual/zh/book.ktaglib.php"/>
+    <hyperlink ref="B31" r:id="rId29" display="oggvorbis" tooltip="https://www.php.net/manual/zh/book.oggvorbis.php"/>
+    <hyperlink ref="B32" r:id="rId30" display="OpenAL" tooltip="https://www.php.net/manual/zh/book.openal.php"/>
+    <hyperlink ref="A33" r:id="rId31" display="身份认证服务" tooltip="https://www.php.net/manual/zh/refs.remote.auth.php"/>
+    <hyperlink ref="B33" r:id="rId32" display="KADM5" tooltip="https://www.php.net/manual/zh/book.kadm5.php"/>
+    <hyperlink ref="B34" r:id="rId33" display="Radius" tooltip="https://www.php.net/manual/zh/book.radius.php"/>
+    <hyperlink ref="A35" r:id="rId34" display="针对命令行的扩展" tooltip="https://www.php.net/manual/zh/refs.utilspec.cmdline.php"/>
+    <hyperlink ref="B35" r:id="rId35" display="Ncurses" tooltip="https://www.php.net/manual/zh/book.ncurses.php"/>
+    <hyperlink ref="B36" r:id="rId36" display="Newt" tooltip="https://www.php.net/manual/zh/book.newt.php"/>
+    <hyperlink ref="B37" r:id="rId37" display="Readline" tooltip="https://www.php.net/manual/zh/book.readline.php"/>
+    <hyperlink ref="A38" r:id="rId38" display="压缩与归档扩展" tooltip="https://www.php.net/manual/zh/refs.compression.php"/>
+    <hyperlink ref="B38" r:id="rId39" display="Bzip2" tooltip="https://www.php.net/manual/zh/book.bzip2.php"/>
+    <hyperlink ref="B39" r:id="rId40" display="LZF" tooltip="https://www.php.net/manual/zh/book.lzf.php"/>
+    <hyperlink ref="B40" r:id="rId41" display="Phar" tooltip="https://www.php.net/manual/zh/book.phar.php"/>
+    <hyperlink ref="B41" r:id="rId42" display="Rar" tooltip="https://www.php.net/manual/zh/book.rar.php"/>
+    <hyperlink ref="B42" r:id="rId43" display="Zip" tooltip="https://www.php.net/manual/zh/book.zip.php"/>
+    <hyperlink ref="B43" r:id="rId44" display="Zlib" tooltip="https://www.php.net/manual/zh/book.zlib.php"/>
+    <hyperlink ref="A44" r:id="rId45" display="信用卡处理" tooltip="https://www.php.net/manual/zh/refs.creditcard.php"/>
+    <hyperlink ref="B44" r:id="rId46" display="MCVE" tooltip="https://www.php.net/manual/zh/book.mcve.php"/>
+    <hyperlink ref="A45" r:id="rId47" display="加密扩展" tooltip="https://www.php.net/manual/zh/refs.crypto.php"/>
+    <hyperlink ref="B45" r:id="rId48" display="Crack" tooltip="https://www.php.net/manual/zh/book.crack.php"/>
+    <hyperlink ref="B46" r:id="rId49" display="CSPRNG" tooltip="https://www.php.net/manual/zh/book.csprng.php"/>
+    <hyperlink ref="B47" r:id="rId50" display="Hash" tooltip="https://www.php.net/manual/zh/book.hash.php"/>
+    <hyperlink ref="B48" r:id="rId51" display="Mcrypt" tooltip="https://www.php.net/manual/zh/book.mcrypt.php"/>
+    <hyperlink ref="B49" r:id="rId52" display="Mhash" tooltip="https://www.php.net/manual/zh/book.mhash.php"/>
+    <hyperlink ref="B50" r:id="rId53" display="OpenSSL" tooltip="https://www.php.net/manual/zh/book.openssl.php"/>
+    <hyperlink ref="B51" r:id="rId54" display="密码散列算法" tooltip="https://www.php.net/manual/zh/book.password.php"/>
+    <hyperlink ref="B52" r:id="rId55" display="Sodium" tooltip="https://www.php.net/manual/zh/book.sodium.php"/>
+    <hyperlink ref="A53" r:id="rId56" display="数据库扩展" tooltip="https://www.php.net/manual/zh/refs.database.php"/>
+    <hyperlink ref="B53" r:id="rId57" display="数据库抽象层" tooltip="https://www.php.net/manual/zh/refs.database.abstract.php"/>
+    <hyperlink ref="B54" r:id="rId58" display="针对各数据库系统对应的扩展" tooltip="https://www.php.net/manual/zh/refs.database.vendors.php"/>
+    <hyperlink ref="A55" r:id="rId59" display="日期与时间相关扩展" tooltip="https://www.php.net/manual/zh/refs.calendar.php"/>
+    <hyperlink ref="B55" r:id="rId60" display="Calendar" tooltip="https://www.php.net/manual/zh/book.calendar.php"/>
+    <hyperlink ref="B56" r:id="rId61" display="日期/时间 " tooltip="https://www.php.net/manual/zh/book.datetime.php"/>
+    <hyperlink ref="B57" r:id="rId62" display="HRTime " tooltip="https://www.php.net/manual/zh/book.hrtime.php"/>
+    <hyperlink ref="A58" r:id="rId63" display="文件系统相关扩展" tooltip="https://www.php.net/manual/zh/refs.fileprocess.file.php"/>
+    <hyperlink ref="B58" r:id="rId64" display="Direct IO" tooltip="https://www.php.net/manual/zh/book.dio.php"/>
+    <hyperlink ref="B59" r:id="rId65" display="目录" tooltip="https://www.php.net/manual/zh/book.dir.php"/>
+    <hyperlink ref="B60" r:id="rId66" display="Fileinfo " tooltip="https://www.php.net/manual/zh/book.fileinfo.php"/>
+    <hyperlink ref="B61" r:id="rId67" display="文件系统" tooltip="https://www.php.net/manual/zh/book.filesystem.php"/>
+    <hyperlink ref="B62" r:id="rId68" display="Inotify" tooltip="https://www.php.net/manual/zh/book.inotify.php"/>
+    <hyperlink ref="B63" r:id="rId69" display="Mimetype" tooltip="https://www.php.net/manual/zh/book.mime-magic.php"/>
+    <hyperlink ref="B64" r:id="rId70" display="Phdfs" tooltip="https://www.php.net/manual/zh/book.phdfs.php"/>
+    <hyperlink ref="B65" r:id="rId71" display="Proctitle" tooltip="https://www.php.net/manual/zh/book.proctitle.php"/>
+    <hyperlink ref="B66" r:id="rId72" display="xattr" tooltip="https://www.php.net/manual/zh/book.xattr.php"/>
+    <hyperlink ref="B67" r:id="rId73" display="xdiff" tooltip="https://www.php.net/manual/zh/book.xdiff.php"/>
+    <hyperlink ref="A68" r:id="rId74" display="国际化与字符编码支持" tooltip="https://www.php.net/manual/zh/refs.international.php"/>
+    <hyperlink ref="B68" r:id="rId75" display="Enchant" tooltip="https://www.php.net/manual/zh/book.enchant.php"/>
+    <hyperlink ref="B69" r:id="rId76" display="FriBiDi" tooltip="https://www.php.net/manual/zh/book.fribidi.php"/>
+    <hyperlink ref="B70" r:id="rId77" display="Gender" tooltip="https://www.php.net/manual/zh/book.gender.php"/>
+    <hyperlink ref="B71" r:id="rId78" display="Gettext" tooltip="https://www.php.net/manual/zh/book.gettext.php"/>
+    <hyperlink ref="B72" r:id="rId79" display="iconv" tooltip="https://www.php.net/manual/zh/book.iconv.php"/>
+    <hyperlink ref="B73" r:id="rId80" display="intl " tooltip="https://www.php.net/manual/zh/book.intl.php"/>
+    <hyperlink ref="B74" r:id="rId81" display="多字节字符串" tooltip="https://www.php.net/manual/zh/book.mbstring.php"/>
+    <hyperlink ref="B75" r:id="rId82" display="Pspell" tooltip="https://www.php.net/manual/zh/book.pspell.php"/>
+    <hyperlink ref="B76" r:id="rId83" display="Recode" tooltip="https://www.php.net/manual/zh/book.recode.php"/>
+    <hyperlink ref="A77" r:id="rId84" display="图像生成和处理" tooltip="https://www.php.net/manual/zh/refs.utilspec.image.php"/>
+    <hyperlink ref="B77" r:id="rId85" display="Cairo" tooltip="https://www.php.net/manual/zh/book.cairo.php"/>
+    <hyperlink ref="B78" r:id="rId86" display="Exif " tooltip="https://www.php.net/manual/zh/book.exif.php"/>
+    <hyperlink ref="B79" r:id="rId87" display="GD" tooltip="https://www.php.net/manual/zh/book.image.php"/>
+    <hyperlink ref="B80" r:id="rId88" display="Gmagick" tooltip="https://www.php.net/manual/zh/book.gmagick.php"/>
+    <hyperlink ref="B81" r:id="rId89" display="ImageMagick" tooltip="https://www.php.net/manual/zh/book.imagick.php"/>
+    <hyperlink ref="A82" r:id="rId90" display="邮件相关扩展" tooltip="https://www.php.net/manual/zh/refs.remote.mail.php"/>
+    <hyperlink ref="B82" r:id="rId91" display="Cyrus" tooltip="https://www.php.net/manual/zh/book.cyrus.php"/>
+    <hyperlink ref="B83" r:id="rId92" display="IMAP" tooltip="https://www.php.net/manual/zh/book.imap.php"/>
+    <hyperlink ref="B84" r:id="rId93" display="Mail" tooltip="https://www.php.net/manual/zh/book.mail.php"/>
+    <hyperlink ref="B85" r:id="rId94" display="Mailparse" tooltip="https://www.php.net/manual/zh/book.mailparse.php"/>
+    <hyperlink ref="B86" r:id="rId95" display="vpopmail" tooltip="https://www.php.net/manual/zh/book.vpopmail.php"/>
+    <hyperlink ref="A87" r:id="rId96" display="数学扩展" tooltip="https://www.php.net/manual/zh/refs.math.php"/>
+    <hyperlink ref="B87" r:id="rId97" display="BC Math" tooltip="https://www.php.net/manual/zh/book.bc.php"/>
+    <hyperlink ref="B88" r:id="rId98" display="GMP" tooltip="https://www.php.net/manual/zh/book.gmp.php"/>
+    <hyperlink ref="B89" r:id="rId99" display="Lapack" tooltip="https://www.php.net/manual/zh/book.lapack.php"/>
+    <hyperlink ref="B90" r:id="rId100" display="Math" tooltip="https://www.php.net/manual/zh/book.math.php"/>
+    <hyperlink ref="B91" r:id="rId101" display="Statistics" tooltip="https://www.php.net/manual/zh/book.stats.php"/>
+    <hyperlink ref="B92" r:id="rId102" display="Trader" tooltip="https://www.php.net/manual/zh/book.trader.php"/>
+    <hyperlink ref="A93" r:id="rId103" display="非文本内容的 MIME 输出" tooltip="https://www.php.net/manual/zh/refs.utilspec.nontext.php"/>
+    <hyperlink ref="B93" r:id="rId104" display="FDF" tooltip="https://www.php.net/manual/zh/book.fdf.php"/>
+    <hyperlink ref="B94" r:id="rId105" display="GnuPG " tooltip="https://www.php.net/manual/zh/book.gnupg.php"/>
+    <hyperlink ref="B95" r:id="rId106" display="haru " tooltip="https://www.php.net/manual/zh/book.haru.php"/>
+    <hyperlink ref="B96" r:id="rId107" display="Ming " tooltip="https://www.php.net/manual/zh/book.ming.php"/>
+    <hyperlink ref="B97" r:id="rId108" display="PDF" tooltip="https://www.php.net/manual/zh/book.pdf.php"/>
+    <hyperlink ref="B98" r:id="rId109" display="wkhtmltox" tooltip="https://www.php.net/manual/zh/book.wkhtmltox.php"/>
+    <hyperlink ref="B99" r:id="rId110" display="PS" tooltip="https://www.php.net/manual/zh/book.ps.php"/>
+    <hyperlink ref="B100" r:id="rId111" display="RPM Reader" tooltip="https://www.php.net/manual/zh/book.rpmreader.php"/>
+    <hyperlink ref="B101" r:id="rId112" display="XLSWriter" tooltip="https://www.php.net/manual/zh/book.xlswriter.php"/>
+    <hyperlink ref="A102" r:id="rId113" display="进程控制扩展" tooltip="https://www.php.net/manual/zh/refs.fileprocess.process.php"/>
+    <hyperlink ref="B102" r:id="rId114" display="Eio" tooltip="https://www.php.net/manual/zh/book.eio.php"/>
+    <hyperlink ref="B103" r:id="rId115" display="Ev" tooltip="https://www.php.net/manual/zh/book.ev.php"/>
+    <hyperlink ref="B104" r:id="rId116" display="Expect" tooltip="https://www.php.net/manual/zh/book.expect.php"/>
+    <hyperlink ref="B105" r:id="rId117" display="Libevent" tooltip="https://www.php.net/manual/zh/book.libevent.php"/>
+    <hyperlink ref="B106" r:id="rId118" display="PCNTL " tooltip="https://www.php.net/manual/zh/book.pcntl.php"/>
+    <hyperlink ref="B107" r:id="rId119" display="POSIX" tooltip="https://www.php.net/manual/zh/book.posix.php"/>
+    <hyperlink ref="B108" r:id="rId120" display="程序执行 " tooltip="https://www.php.net/manual/zh/book.exec.php"/>
+    <hyperlink ref="B109" r:id="rId121" display="parallel" tooltip="https://www.php.net/manual/zh/book.parallel.php"/>
+    <hyperlink ref="B110" r:id="rId122" display="pthreads" tooltip="https://www.php.net/manual/zh/book.pthreads.php"/>
+    <hyperlink ref="B111" r:id="rId123" display="pht" tooltip="https://www.php.net/manual/zh/book.pht.php"/>
+    <hyperlink ref="B112" r:id="rId124" display="Semaphore" tooltip="https://www.php.net/manual/zh/book.sem.php"/>
+    <hyperlink ref="B113" r:id="rId125" display="Shared Memory" tooltip="https://www.php.net/manual/zh/book.shmop.php"/>
+    <hyperlink ref="B114" r:id="rId126" display="Sync" tooltip="https://www.php.net/manual/zh/book.sync.php"/>
+    <hyperlink ref="A115" r:id="rId127" display="其它基本扩展" tooltip="https://www.php.net/manual/zh/refs.basic.other.php"/>
+    <hyperlink ref="B115" r:id="rId128" display="GeoIP " tooltip="https://www.php.net/manual/zh/book.geoip.php"/>
+    <hyperlink ref="B116" r:id="rId129" display="FANN " tooltip="https://www.php.net/manual/zh/book.fann.php"/>
+    <hyperlink ref="B117" r:id="rId130" display="JSON" tooltip="https://www.php.net/manual/zh/book.json.php"/>
+    <hyperlink ref="B118" r:id="rId131" display="Judy " tooltip="https://www.php.net/manual/zh/book.judy.php"/>
+    <hyperlink ref="B119" r:id="rId132" display="Lua" tooltip="https://www.php.net/manual/zh/book.lua.php"/>
+    <hyperlink ref="B120" r:id="rId133" display="LuaSandbox" tooltip="https://www.php.net/manual/zh/book.luasandbox.php"/>
+    <hyperlink ref="B121" r:id="rId134" display="Misc." tooltip="https://www.php.net/manual/zh/book.misc.php"/>
+    <hyperlink ref="B122" r:id="rId135" display="Parsekit" tooltip="https://www.php.net/manual/zh/book.parsekit.php"/>
+    <hyperlink ref="B123" r:id="rId136" display="SeasLog" tooltip="https://www.php.net/manual/zh/book.seaslog.php"/>
+    <hyperlink ref="B124" r:id="rId137" display="SPL" tooltip="https://www.php.net/manual/zh/book.spl.php"/>
+    <hyperlink ref="B125" r:id="rId138" display="SPL Types" tooltip="https://www.php.net/manual/zh/book.spl-types.php"/>
+    <hyperlink ref="B126" r:id="rId139" display="Streams" tooltip="https://www.php.net/manual/zh/book.stream.php"/>
+    <hyperlink ref="B127" r:id="rId140" display="Swoole" tooltip="https://www.php.net/manual/zh/book.swoole.php"/>
+    <hyperlink ref="B128" r:id="rId141" display="Tidy" tooltip="https://www.php.net/manual/zh/book.tidy.php"/>
+    <hyperlink ref="B129" r:id="rId142" display="Tokenizer" tooltip="https://www.php.net/manual/zh/book.tokenizer.php"/>
+    <hyperlink ref="B130" r:id="rId143" display="URLs" tooltip="https://www.php.net/manual/zh/book.url.php"/>
+    <hyperlink ref="B131" r:id="rId144" display="V8js " tooltip="https://www.php.net/manual/zh/book.v8js.php"/>
+    <hyperlink ref="B132" r:id="rId145" display="Yaml " tooltip="https://www.php.net/manual/zh/book.yaml.php"/>
+    <hyperlink ref="B133" r:id="rId146" display="Yaf" tooltip="https://www.php.net/manual/zh/book.yaf.php"/>
+    <hyperlink ref="B134" r:id="rId147" display="Yaconf" tooltip="https://www.php.net/manual/zh/book.yaconf.php"/>
+    <hyperlink ref="B135" r:id="rId148" display="Taint" tooltip="https://www.php.net/manual/zh/book.taint.php"/>
+    <hyperlink ref="B136" r:id="rId149" display="Data Structures" tooltip="https://www.php.net/manual/zh/book.ds.php"/>
+    <hyperlink ref="A137" r:id="rId150" display="其它服务" tooltip="https://www.php.net/manual/zh/refs.remote.other.php"/>
+    <hyperlink ref="B137" r:id="rId151" display="chdb " tooltip="https://www.php.net/manual/zh/book.chdb.php"/>
+    <hyperlink ref="B138" r:id="rId152" display="cURL " tooltip="https://www.php.net/manual/zh/book.curl.php"/>
+    <hyperlink ref="B139" r:id="rId153" display="Event" tooltip="https://www.php.net/manual/zh/book.event.php"/>
+    <hyperlink ref="B140" r:id="rId154" display="FAM " tooltip="https://www.php.net/manual/zh/book.fam.php"/>
+    <hyperlink ref="B141" r:id="rId155" display="FTP" tooltip="https://www.php.net/manual/zh/book.ftp.php"/>
+    <hyperlink ref="B142" r:id="rId156" display="Gearman" tooltip="https://www.php.net/manual/zh/book.gearman.php"/>
+    <hyperlink ref="B143" r:id="rId157" display="Gopher " tooltip="https://www.php.net/manual/zh/book.net-gopher.php"/>
+    <hyperlink ref="B144" r:id="rId158" display="Gupnp" tooltip="https://www.php.net/manual/zh/book.gupnp.php"/>
+    <hyperlink ref="B145" r:id="rId159" display="Hyperwave API" tooltip="https://www.php.net/manual/zh/book.hwapi.php"/>
+    <hyperlink ref="B146" r:id="rId160" display="LDAP" tooltip="https://www.php.net/manual/zh/book.ldap.php"/>
+    <hyperlink ref="B147" r:id="rId161" display="Memcache" tooltip="https://www.php.net/manual/zh/book.memcache.php"/>
+    <hyperlink ref="B148" r:id="rId162" display="Memcached" tooltip="https://www.php.net/manual/zh/book.memcached.php"/>
+    <hyperlink ref="B149" r:id="rId163" display="mqseries" tooltip="https://www.php.net/manual/zh/book.mqseries.php"/>
+    <hyperlink ref="B150" r:id="rId164" display="网络" tooltip="https://www.php.net/manual/zh/book.network.php"/>
+    <hyperlink ref="B151" r:id="rId165" display="RRD" tooltip="https://www.php.net/manual/zh/book.rrd.php"/>
+    <hyperlink ref="B152" r:id="rId166" display="SAM " tooltip="https://www.php.net/manual/zh/book.sam.php"/>
+    <hyperlink ref="B153" r:id="rId167" display="ScoutAPM" tooltip="https://www.php.net/manual/zh/book.scoutapm.php"/>
+    <hyperlink ref="B154" r:id="rId168" display="SNMP" tooltip="https://www.php.net/manual/zh/book.snmp.php"/>
+    <hyperlink ref="B155" r:id="rId169" display="Sockets" tooltip="https://www.php.net/manual/zh/book.sockets.php"/>
+    <hyperlink ref="B156" r:id="rId170" display="SSH2" tooltip="https://www.php.net/manual/zh/book.ssh2.php"/>
+    <hyperlink ref="B157" r:id="rId171" display="Stomp" tooltip="https://www.php.net/manual/zh/book.stomp.php"/>
+    <hyperlink ref="B158" r:id="rId172" display="SVM " tooltip="https://www.php.net/manual/zh/book.svm.php"/>
+    <hyperlink ref="B159" r:id="rId173" display="SVN " tooltip="https://www.php.net/manual/zh/book.svn.php"/>
+    <hyperlink ref="B160" r:id="rId174" display="TCP " tooltip="https://www.php.net/manual/zh/book.tcpwrap.php"/>
+    <hyperlink ref="B161" r:id="rId175" display="Varnish" tooltip="https://www.php.net/manual/zh/book.varnish.php"/>
+    <hyperlink ref="B162" r:id="rId176" display="YAZ" tooltip="https://www.php.net/manual/zh/book.yaz.php"/>
+    <hyperlink ref="B163" r:id="rId177" display="YP/NIS" tooltip="https://www.php.net/manual/zh/book.nis.php"/>
+    <hyperlink ref="B164" r:id="rId178" display="0MQ消息系统 — ZMQ" tooltip="https://www.php.net/manual/zh/book.zmq.php"/>
+    <hyperlink ref="B165" r:id="rId179" display="ZooKeeper" tooltip="https://www.php.net/manual/zh/book.zookeeper.php"/>
+    <hyperlink ref="A166" r:id="rId180" display="搜索引擎扩展" tooltip="https://www.php.net/manual/zh/refs.search.php"/>
+    <hyperlink ref="B166" r:id="rId181" display="mnoGoSearch" tooltip="https://www.php.net/manual/zh/book.mnogosearch.php"/>
+    <hyperlink ref="B167" r:id="rId182" display="Solr " tooltip="https://www.php.net/manual/zh/book.solr.php"/>
+    <hyperlink ref="B168" r:id="rId183" display="Sphinx" tooltip="https://www.php.net/manual/zh/book.sphinx.php"/>
+    <hyperlink ref="B169" r:id="rId184" display="Swish" tooltip="https://www.php.net/manual/zh/book.swish.php"/>
+    <hyperlink ref="A170" r:id="rId185" display="针对服务器的扩展" tooltip="https://www.php.net/manual/zh/refs.utilspec.server.php"/>
+    <hyperlink ref="B170" r:id="rId186" display="Apache" tooltip="https://www.php.net/manual/zh/book.apache.php"/>
+    <hyperlink ref="B171" r:id="rId187" display="FastCGI 进程管理器" tooltip="https://www.php.net/manual/zh/book.fpm.php"/>
+    <hyperlink ref="B172" r:id="rId188" display="IIS" tooltip="https://www.php.net/manual/zh/book.iisfunc.php"/>
+    <hyperlink ref="B173" r:id="rId189" display="NSAPI" tooltip="https://www.php.net/manual/zh/book.nsapi.php"/>
+    <hyperlink ref="A174" r:id="rId190" display="Session 扩展" tooltip="https://www.php.net/manual/zh/refs.basic.session.php"/>
+    <hyperlink ref="B174" r:id="rId191" display="Msession" tooltip="https://www.php.net/manual/zh/book.msession.php"/>
+    <hyperlink ref="B175" r:id="rId192" display="Sessions" tooltip="https://www.php.net/manual/zh/book.session.php"/>
+    <hyperlink ref="B176" r:id="rId193" display="Session PgSQL " tooltip="https://www.php.net/manual/zh/book.session-pgsql.php"/>
+    <hyperlink ref="A177" r:id="rId194" display="文本处理" tooltip="https://www.php.net/manual/zh/refs.basic.text.php"/>
+    <hyperlink ref="B177" r:id="rId195" display="BBCode " tooltip="https://www.php.net/manual/zh/book.bbcode.php"/>
+    <hyperlink ref="B178" r:id="rId196" display="CommonMark" tooltip="https://www.php.net/manual/zh/book.cmark.php"/>
+    <hyperlink ref="B179" r:id="rId197" display="Parle " tooltip="https://www.php.net/manual/zh/book.parle.php"/>
+    <hyperlink ref="B180" r:id="rId198" display="PCRE" tooltip="https://www.php.net/manual/zh/book.pcre.php"/>
+    <hyperlink ref="B181" r:id="rId199" display="POSIX Regex" tooltip="https://www.php.net/manual/zh/book.regex.php"/>
+    <hyperlink ref="B182" r:id="rId200" display="ssdeep " tooltip="https://www.php.net/manual/zh/book.ssdeep.php"/>
+    <hyperlink ref="B183" r:id="rId201" display="字符串" tooltip="https://www.php.net/manual/zh/book.strings.php"/>
+    <hyperlink ref="A184" r:id="rId202" display="变量与类型相关扩展" tooltip="https://www.php.net/manual/zh/refs.basic.vartype.php"/>
+    <hyperlink ref="B184" r:id="rId203" display="数组" tooltip="https://www.php.net/manual/zh/book.array.php"/>
+    <hyperlink ref="B185" r:id="rId204" display="类/对象 " tooltip="https://www.php.net/manual/zh/book.classobj.php"/>
+    <hyperlink ref="B186" r:id="rId205" display="Classkit" tooltip="https://www.php.net/manual/zh/book.classkit.php"/>
+    <hyperlink ref="B187" r:id="rId206" display="Ctype" tooltip="https://www.php.net/manual/zh/book.ctype.php"/>
+    <hyperlink ref="B188" r:id="rId207" display="Filter " tooltip="https://www.php.net/manual/zh/book.filter.php"/>
+    <hyperlink ref="B189" r:id="rId208" display="函数处理" tooltip="https://www.php.net/manual/zh/book.funchand.php"/>
+    <hyperlink ref="B190" r:id="rId209" display="Quickhash" tooltip="https://www.php.net/manual/zh/book.quickhash.php"/>
+    <hyperlink ref="B191" r:id="rId210" display="反射" tooltip="https://www.php.net/manual/zh/book.reflection.php"/>
+    <hyperlink ref="B192" r:id="rId211" display="Variable handling" tooltip="https://www.php.net/manual/zh/book.var.php"/>
+    <hyperlink ref="A193" r:id="rId212" display="Web 服务" tooltip="https://www.php.net/manual/zh/refs.webservice.php"/>
+    <hyperlink ref="B193" r:id="rId213" display="OAuth" tooltip="https://www.php.net/manual/zh/book.oauth.php"/>
+    <hyperlink ref="B194" r:id="rId214" display="SCA" tooltip="https://www.php.net/manual/zh/book.sca.php"/>
+    <hyperlink ref="B195" r:id="rId215" display="SOAP" tooltip="https://www.php.net/manual/zh/book.soap.php"/>
+    <hyperlink ref="B196" r:id="rId216" display="Yar " tooltip="https://www.php.net/manual/zh/book.yar.php"/>
+    <hyperlink ref="B197" r:id="rId217" display="XML-RPC" tooltip="https://www.php.net/manual/zh/book.xmlrpc.php"/>
+    <hyperlink ref="A198" r:id="rId218" display="Windows 专用扩展" tooltip="https://www.php.net/manual/zh/refs.utilspec.windows.php"/>
+    <hyperlink ref="B198" r:id="rId219" display="COM" tooltip="https://www.php.net/manual/zh/book.com.php"/>
+    <hyperlink ref="B199" r:id="rId220" display="win32ps" tooltip="https://www.php.net/manual/zh/book.win32ps.php"/>
+    <hyperlink ref="B200" r:id="rId221" display="win32service" tooltip="https://www.php.net/manual/zh/book.win32service.php"/>
+    <hyperlink ref="A201" r:id="rId222" display="XML 操作" tooltip="https://www.php.net/manual/zh/refs.xml.php"/>
+    <hyperlink ref="B201" r:id="rId223" display="DOM " tooltip="https://www.php.net/manual/zh/book.dom.php"/>
+    <hyperlink ref="B202" r:id="rId224" display="libxml" tooltip="https://www.php.net/manual/zh/book.libxml.php"/>
+    <hyperlink ref="B203" r:id="rId225" display="SDO" tooltip="https://www.php.net/manual/zh/book.sdo.php"/>
+    <hyperlink ref="B204" r:id="rId226" display="SDO-DAS-Relational" tooltip="https://www.php.net/manual/zh/book.sdodasrel.php"/>
+    <hyperlink ref="B205" r:id="rId227" display="SDO DAS XML" tooltip="https://www.php.net/manual/zh/book.sdo-das-xml.php"/>
+    <hyperlink ref="B206" r:id="rId228" display="SimpleXML" tooltip="https://www.php.net/manual/zh/book.simplexml.php"/>
+    <hyperlink ref="B207" r:id="rId229" display="WDDX" tooltip="https://www.php.net/manual/zh/book.wddx.php"/>
+    <hyperlink ref="B208" r:id="rId230" display="XMLDiff " tooltip="https://www.php.net/manual/zh/book.xmldiff.php"/>
+    <hyperlink ref="B209" r:id="rId231" display="XML 解析器" tooltip="https://www.php.net/manual/zh/book.xml.php"/>
+    <hyperlink ref="B210" r:id="rId232" display="XMLReader" tooltip="https://www.php.net/manual/zh/book.xmlreader.php"/>
+    <hyperlink ref="B211" r:id="rId233" display="XMLWriter" tooltip="https://www.php.net/manual/zh/book.xmlwriter.php"/>
+    <hyperlink ref="B212" r:id="rId234" display="XSL" tooltip="https://www.php.net/manual/zh/book.xsl.php"/>
+    <hyperlink ref="A213" r:id="rId235" display="图形用户界面(GUI) 扩展" tooltip="https://www.php.net/manual/zh/refs.ui.php"/>
+    <hyperlink ref="B213" r:id="rId236" display="UI" tooltip="https://www.php.net/manual/zh/book.ui.php"/>
+    <hyperlink ref="B5" r:id="rId237" display="https://www.php.net/manual/zh/funcref.php" tooltip="https://www.php.net/manual/zh/funcref.php"/>
+    <hyperlink ref="K14" r:id="rId11" display="Foreign Function Interface"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
